--- a/01.08.xlsx
+++ b/01.08.xlsx
@@ -495,19 +495,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -530,19 +530,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -600,19 +600,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>90</v>
+      </c>
+      <c r="C5" t="n">
+        <v>97</v>
+      </c>
+      <c r="D5" t="n">
         <v>71</v>
       </c>
-      <c r="C5" t="n">
-        <v>41</v>
-      </c>
-      <c r="D5" t="n">
-        <v>70</v>
-      </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -635,19 +635,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -670,22 +670,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -705,31 +705,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
         <v>88</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -740,19 +740,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -810,31 +810,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -845,19 +845,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -915,19 +915,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C14" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -950,31 +950,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C15" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -985,31 +985,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
+        <v>40</v>
+      </c>
+      <c r="C16" t="n">
+        <v>80</v>
+      </c>
+      <c r="D16" t="n">
         <v>44</v>
       </c>
-      <c r="C16" t="n">
-        <v>70</v>
-      </c>
-      <c r="D16" t="n">
-        <v>83</v>
-      </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C17" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1055,22 +1055,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1090,19 +1090,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1125,31 +1125,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>52</v>
+      </c>
+      <c r="D20" t="n">
         <v>45</v>
       </c>
-      <c r="C20" t="n">
-        <v>92</v>
-      </c>
-      <c r="D20" t="n">
-        <v>51</v>
-      </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1160,22 +1160,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1195,31 +1195,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D22" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1230,19 +1230,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D23" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C24" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1300,31 +1300,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C25" t="n">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1335,31 +1335,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C26" t="n">
         <v>47</v>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1370,31 +1370,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D27" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ПМ</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1405,31 +1405,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1440,31 +1440,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1475,31 +1475,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1510,19 +1510,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1545,31 +1545,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C32" t="n">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1583,16 +1583,16 @@
         <v>47</v>
       </c>
       <c r="C33" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D33" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1615,31 +1615,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C34" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D34" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>ПМ</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1650,31 +1650,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C35" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D35" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1685,31 +1685,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D36" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>258</v>
+      </c>
+      <c r="G36" t="b">
         <v>1</v>
       </c>
-      <c r="F36" t="n">
-        <v>203</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1720,31 +1720,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C37" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D37" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1755,19 +1755,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C38" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D38" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1790,31 +1790,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C39" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D39" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>223</v>
+      </c>
+      <c r="G39" t="b">
         <v>1</v>
       </c>
-      <c r="F39" t="n">
-        <v>208</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -1825,31 +1825,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D40" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1860,31 +1860,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C41" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D41" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1895,19 +1895,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
+        <v>96</v>
+      </c>
+      <c r="C42" t="n">
+        <v>45</v>
+      </c>
+      <c r="D42" t="n">
         <v>87</v>
       </c>
-      <c r="C42" t="n">
-        <v>83</v>
-      </c>
-      <c r="D42" t="n">
-        <v>70</v>
-      </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -1930,31 +1930,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D43" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1965,31 +1965,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C44" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D44" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2000,22 +2000,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C45" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D45" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2035,31 +2035,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C46" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D46" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2070,19 +2070,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D47" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2105,31 +2105,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C48" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D48" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2140,31 +2140,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C49" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D49" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2175,31 +2175,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C50" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D50" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2210,31 +2210,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C51" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D51" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>ПМ</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2249,36 +2249,36 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C52" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D52" t="n">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>ПМ</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -2288,31 +2288,31 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C53" t="n">
         <v>50</v>
       </c>
       <c r="D53" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2327,19 +2327,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C54" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D54" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2366,36 +2366,36 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C55" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="D55" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -2405,19 +2405,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C56" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -2444,36 +2444,36 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C57" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -2483,19 +2483,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="C58" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D58" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -2507,12 +2507,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -2522,16 +2522,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C59" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D59" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>216</v>
@@ -2565,41 +2565,41 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C60" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D60" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>ИТСС</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -2608,41 +2608,41 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C61" t="n">
         <v>48</v>
       </c>
       <c r="D61" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>ПМ</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
     </row>
@@ -2651,31 +2651,31 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D62" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2686,31 +2686,31 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D63" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E63" t="n">
         <v>6</v>
       </c>
       <c r="F63" t="n">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -2721,19 +2721,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C64" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D64" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -2756,19 +2756,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C65" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D65" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
@@ -2791,31 +2791,31 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C66" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2826,31 +2826,31 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C67" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D67" t="n">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2861,31 +2861,31 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C68" t="n">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D68" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2896,31 +2896,31 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C69" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D69" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2931,31 +2931,31 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D70" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2966,19 +2966,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C71" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D71" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -3001,31 +3001,31 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C72" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D72" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3036,19 +3036,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C73" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D73" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -3071,19 +3071,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C74" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D74" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -3106,19 +3106,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C75" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D75" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -3141,31 +3141,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D76" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3176,19 +3176,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C77" t="n">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D77" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -3211,31 +3211,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C78" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D78" t="n">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3246,31 +3246,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C79" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3281,31 +3281,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C80" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D80" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3316,31 +3316,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C81" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D81" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E81" t="n">
         <v>6</v>
       </c>
       <c r="F81" t="n">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3351,19 +3351,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C82" t="n">
         <v>46</v>
       </c>
       <c r="D82" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -3386,31 +3386,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C83" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D83" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3421,22 +3421,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C84" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D84" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3456,31 +3456,31 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C85" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D85" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3491,19 +3491,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C86" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D86" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
@@ -3526,19 +3526,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C87" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D87" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
@@ -3561,19 +3561,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C88" t="n">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D88" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
@@ -3592,19 +3592,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C89" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D89" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -3623,19 +3623,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C90" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D90" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -3654,19 +3654,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C91" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D91" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -3685,19 +3685,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C92" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D92" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
@@ -3716,19 +3716,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C93" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D93" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
@@ -3747,19 +3747,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D94" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
@@ -3778,19 +3778,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C95" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D95" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
       </c>
       <c r="F95" t="n">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
@@ -3809,19 +3809,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C96" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D96" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
@@ -3840,19 +3840,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C97" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
@@ -3871,16 +3871,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C98" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D98" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>220</v>
@@ -3902,19 +3902,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C99" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D99" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
@@ -3933,19 +3933,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C100" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D100" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
@@ -3964,19 +3964,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C101" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D101" t="n">
         <v>41</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F101" t="n">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
@@ -3995,19 +3995,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C102" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D102" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F102" t="n">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -4026,19 +4026,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C103" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D103" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
@@ -4057,19 +4057,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C104" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D104" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
@@ -4088,22 +4088,22 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C105" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D105" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F105" t="n">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4119,19 +4119,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C106" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D106" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E106" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -4150,19 +4150,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C107" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D107" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C108" t="n">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D108" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
@@ -4212,22 +4212,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C109" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D109" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F109" t="n">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4243,19 +4243,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C110" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D110" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -4274,19 +4274,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C111" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D111" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
@@ -4305,22 +4305,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C112" t="n">
+        <v>69</v>
+      </c>
+      <c r="D112" t="n">
         <v>91</v>
       </c>
-      <c r="D112" t="n">
-        <v>67</v>
-      </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4336,19 +4336,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C113" t="n">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E113" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
@@ -4367,19 +4367,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C114" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D114" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
@@ -4398,13 +4398,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C115" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D115" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -4429,22 +4429,22 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C116" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D116" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4460,19 +4460,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C117" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D117" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
@@ -4491,19 +4491,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C118" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D118" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F118" t="n">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -4522,19 +4522,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C119" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D119" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F119" t="n">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
@@ -4553,19 +4553,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C120" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D120" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
@@ -4584,19 +4584,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C121" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D121" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E121" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F121" t="n">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
@@ -4615,19 +4615,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C122" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D122" t="n">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="E122" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -4646,19 +4646,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C123" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D123" t="n">
         <v>66</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F123" t="n">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
@@ -4677,22 +4677,22 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
+        <v>78</v>
+      </c>
+      <c r="C124" t="n">
+        <v>56</v>
+      </c>
+      <c r="D124" t="n">
         <v>87</v>
       </c>
-      <c r="C124" t="n">
-        <v>63</v>
-      </c>
-      <c r="D124" t="n">
-        <v>59</v>
-      </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4708,19 +4708,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C125" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D125" t="n">
         <v>97</v>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
@@ -4739,19 +4739,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C126" t="n">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D126" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E126" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="G126" t="b">
         <v>0</v>
@@ -4770,19 +4770,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C127" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D127" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E127" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
@@ -4801,19 +4801,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C128" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D128" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="E128" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
@@ -4832,19 +4832,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C129" t="n">
+        <v>90</v>
+      </c>
+      <c r="D129" t="n">
         <v>44</v>
       </c>
-      <c r="D129" t="n">
-        <v>60</v>
-      </c>
       <c r="E129" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F129" t="n">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
@@ -4863,19 +4863,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C130" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D130" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F130" t="n">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
@@ -4894,19 +4894,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C131" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D131" t="n">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F131" t="n">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
@@ -4925,19 +4925,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C132" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D132" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
@@ -4956,19 +4956,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C133" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D133" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E133" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
@@ -4987,19 +4987,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C134" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D134" t="n">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
       </c>
       <c r="F134" t="n">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="G134" t="b">
         <v>0</v>
@@ -5018,19 +5018,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C135" t="n">
         <v>41</v>
       </c>
       <c r="D135" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E135" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="G135" t="b">
         <v>0</v>
@@ -5049,19 +5049,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C136" t="n">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D136" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
@@ -5080,19 +5080,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C137" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D137" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E137" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F137" t="n">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="G137" t="b">
         <v>0</v>
@@ -5111,19 +5111,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C138" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D138" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="G138" t="b">
         <v>0</v>
@@ -5142,19 +5142,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C139" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D139" t="n">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E139" t="n">
         <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
@@ -5173,19 +5173,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C140" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D140" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G140" t="b">
         <v>0</v>
@@ -5204,19 +5204,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C141" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D141" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
@@ -5235,22 +5235,22 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C142" t="n">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D142" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5266,22 +5266,22 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C143" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D143" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5297,19 +5297,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C144" t="n">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D144" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E144" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F144" t="n">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="G144" t="b">
         <v>0</v>
@@ -5328,19 +5328,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C145" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D145" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F145" t="n">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="G145" t="b">
         <v>0</v>
@@ -5359,19 +5359,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C146" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D146" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F146" t="n">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G146" t="b">
         <v>0</v>
@@ -5390,19 +5390,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D147" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E147" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F147" t="n">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G147" t="b">
         <v>0</v>
@@ -5421,19 +5421,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C148" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="D148" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="G148" t="b">
         <v>0</v>
@@ -5452,19 +5452,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
+        <v>67</v>
+      </c>
+      <c r="C149" t="n">
         <v>61</v>
       </c>
-      <c r="C149" t="n">
-        <v>44</v>
-      </c>
       <c r="D149" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E149" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="G149" t="b">
         <v>0</v>
@@ -5483,19 +5483,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C150" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D150" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F150" t="n">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G150" t="b">
         <v>0</v>
@@ -5514,19 +5514,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C151" t="n">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D151" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G151" t="b">
         <v>0</v>
@@ -5545,19 +5545,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C152" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D152" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F152" t="n">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="G152" t="b">
         <v>0</v>
@@ -5576,19 +5576,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C153" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D153" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
@@ -5607,19 +5607,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C154" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D154" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E154" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F154" t="n">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
@@ -5638,19 +5638,19 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C155" t="n">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D155" t="n">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E155" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F155" t="n">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="G155" t="b">
         <v>0</v>
@@ -5669,19 +5669,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C156" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D156" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E156" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F156" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G156" t="b">
         <v>0</v>
@@ -5700,19 +5700,19 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C157" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D157" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F157" t="n">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="G157" t="b">
         <v>0</v>
@@ -5731,19 +5731,19 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C158" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="D158" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F158" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -5762,19 +5762,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C159" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D159" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E159" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F159" t="n">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="G159" t="b">
         <v>0</v>
@@ -5793,19 +5793,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C160" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D160" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E160" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F160" t="n">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G160" t="b">
         <v>0</v>
@@ -5824,19 +5824,19 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C161" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D161" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
       </c>
       <c r="F161" t="n">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G161" t="b">
         <v>0</v>
@@ -5855,19 +5855,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C162" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D162" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
       </c>
       <c r="F162" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G162" t="b">
         <v>0</v>
@@ -5886,19 +5886,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C163" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D163" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F163" t="n">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="G163" t="b">
         <v>0</v>
@@ -5917,19 +5917,19 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C164" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D164" t="n">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G164" t="b">
         <v>0</v>
@@ -5948,22 +5948,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C165" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D165" t="n">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E165" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F165" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -5979,19 +5979,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C166" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D166" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F166" t="n">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G166" t="b">
         <v>0</v>
@@ -6010,19 +6010,19 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C167" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D167" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E167" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="G167" t="b">
         <v>0</v>
@@ -6041,19 +6041,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C168" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D168" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F168" t="n">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="G168" t="b">
         <v>0</v>
@@ -6072,19 +6072,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C169" t="n">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D169" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E169" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F169" t="n">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="G169" t="b">
         <v>0</v>
@@ -6103,19 +6103,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C170" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D170" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E170" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F170" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G170" t="b">
         <v>0</v>
@@ -6134,22 +6134,22 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C171" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D171" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E171" t="n">
+        <v>4</v>
+      </c>
+      <c r="F171" t="n">
+        <v>220</v>
+      </c>
+      <c r="G171" t="b">
         <v>1</v>
-      </c>
-      <c r="F171" t="n">
-        <v>185</v>
-      </c>
-      <c r="G171" t="b">
-        <v>0</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -6165,19 +6165,19 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C172" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D172" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G172" t="b">
         <v>0</v>
@@ -6196,19 +6196,19 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C173" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D173" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E173" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F173" t="n">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="G173" t="b">
         <v>0</v>
@@ -6227,19 +6227,19 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C174" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D174" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E174" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F174" t="n">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="G174" t="b">
         <v>0</v>
@@ -6258,19 +6258,19 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C175" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D175" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G175" t="b">
         <v>0</v>
@@ -6289,22 +6289,22 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C176" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D176" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -6320,19 +6320,19 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C177" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D177" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E177" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="G177" t="b">
         <v>0</v>
@@ -6351,19 +6351,19 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C178" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D178" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E178" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F178" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G178" t="b">
         <v>0</v>
@@ -6382,19 +6382,19 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C179" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D179" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F179" t="n">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="G179" t="b">
         <v>0</v>
@@ -6413,19 +6413,19 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C180" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D180" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
@@ -6444,19 +6444,19 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C181" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D181" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E181" t="n">
         <v>6</v>
       </c>
       <c r="F181" t="n">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G181" t="b">
         <v>0</v>

--- a/01.08.xlsx
+++ b/01.08.xlsx
@@ -495,19 +495,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -530,22 +530,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -565,31 +565,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -600,31 +600,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -635,19 +635,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -670,31 +670,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -705,19 +705,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -740,31 +740,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -775,19 +775,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D11" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -845,31 +845,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C12" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -883,28 +883,28 @@
         <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -915,19 +915,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -953,28 +953,28 @@
         <v>86</v>
       </c>
       <c r="C15" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -985,31 +985,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C16" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1055,31 +1055,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1090,19 +1090,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C19" t="n">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D19" t="n">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1125,22 +1125,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1160,19 +1160,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1195,19 +1195,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C22" t="n">
         <v>43</v>
       </c>
       <c r="D22" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1230,19 +1230,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1265,31 +1265,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1300,16 +1300,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D25" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
         <v>248</v>
@@ -1335,19 +1335,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C26" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D27" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1405,31 +1405,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D28" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>ПМ</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1440,22 +1440,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
+        <v>93</v>
+      </c>
+      <c r="C29" t="n">
         <v>68</v>
       </c>
-      <c r="C29" t="n">
-        <v>52</v>
-      </c>
       <c r="D29" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>241</v>
+      </c>
+      <c r="G29" t="b">
         <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>212</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1475,19 +1475,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C30" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1510,31 +1510,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1545,31 +1545,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C32" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D32" t="n">
         <v>81</v>
       </c>
       <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>273</v>
+      </c>
+      <c r="G32" t="b">
         <v>1</v>
       </c>
-      <c r="F32" t="n">
-        <v>228</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>ПМ</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1580,31 +1580,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D33" t="n">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>ПМ</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1615,19 +1615,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C34" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D34" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1650,31 +1650,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C35" t="n">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D35" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ПМ</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1685,22 +1685,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C36" t="n">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D36" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1720,31 +1720,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C37" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1755,19 +1755,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1790,31 +1790,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C39" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D39" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -1825,19 +1825,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C40" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D40" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -1860,16 +1860,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
+        <v>50</v>
+      </c>
+      <c r="C41" t="n">
+        <v>74</v>
+      </c>
+      <c r="D41" t="n">
         <v>89</v>
       </c>
-      <c r="C41" t="n">
-        <v>63</v>
-      </c>
-      <c r="D41" t="n">
-        <v>58</v>
-      </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>219</v>
@@ -1879,12 +1879,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1895,19 +1895,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D42" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -1930,22 +1930,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C43" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D43" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1965,31 +1965,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C44" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D44" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2000,31 +2000,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C45" t="n">
+        <v>93</v>
+      </c>
+      <c r="D45" t="n">
         <v>65</v>
       </c>
-      <c r="D45" t="n">
-        <v>45</v>
-      </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2035,19 +2035,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C46" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D46" t="n">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2070,31 +2070,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C47" t="n">
         <v>84</v>
       </c>
       <c r="D47" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2105,22 +2105,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C48" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2140,31 +2140,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D49" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E49" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2175,31 +2175,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C50" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2210,36 +2210,36 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C51" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D51" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -2249,19 +2249,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C52" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D52" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
       </c>
       <c r="F52" t="n">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -2288,19 +2288,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D53" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2327,36 +2327,36 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C54" t="n">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D54" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -2366,19 +2366,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C55" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D55" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -2405,31 +2405,31 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C56" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D56" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2444,36 +2444,36 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C57" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D57" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>ПМ</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -2483,36 +2483,36 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C58" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D58" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -2522,19 +2522,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C59" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D59" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2565,41 +2565,41 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C60" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D60" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
           <t>ПМ</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -2608,41 +2608,41 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C61" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D61" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -2651,19 +2651,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C62" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D62" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -2686,19 +2686,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C63" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D63" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C64" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D64" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -2756,31 +2756,31 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C65" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D65" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>177</v>
+      </c>
+      <c r="G65" t="b">
         <v>1</v>
       </c>
-      <c r="F65" t="n">
-        <v>214</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2791,31 +2791,31 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D66" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2826,31 +2826,31 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C67" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D67" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2861,31 +2861,31 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C68" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D68" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2896,31 +2896,31 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C69" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D69" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2931,31 +2931,31 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C70" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D70" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2966,19 +2966,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C71" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D71" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C72" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D72" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -3036,31 +3036,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C73" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D73" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3071,19 +3071,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C74" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D74" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -3106,31 +3106,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C75" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D75" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3141,31 +3141,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C76" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D76" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3176,31 +3176,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D77" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3211,31 +3211,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C78" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3246,19 +3246,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C79" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D79" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -3281,31 +3281,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C80" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D80" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3316,31 +3316,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C81" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D81" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3351,31 +3351,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -3386,31 +3386,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C83" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D83" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3421,31 +3421,31 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C84" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D84" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3456,31 +3456,31 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C85" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D85" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3491,31 +3491,31 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C86" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D86" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3526,31 +3526,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C87" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D87" t="n">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3561,19 +3561,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C88" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D88" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
@@ -3592,19 +3592,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C89" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D89" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -3623,19 +3623,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C90" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D90" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -3654,19 +3654,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C91" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D91" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -3685,19 +3685,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C92" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D92" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
@@ -3716,19 +3716,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C93" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D93" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
@@ -3747,19 +3747,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C94" t="n">
         <v>72</v>
       </c>
       <c r="D94" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
@@ -3778,19 +3778,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D95" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
       </c>
       <c r="F95" t="n">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
@@ -3809,22 +3809,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C96" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D96" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3840,19 +3840,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D97" t="n">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
@@ -3871,19 +3871,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C98" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D98" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
@@ -3902,19 +3902,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C99" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D99" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
@@ -3933,19 +3933,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C100" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D100" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
@@ -3964,19 +3964,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C101" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D101" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
@@ -3995,19 +3995,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C102" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D102" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -4026,22 +4026,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C103" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D103" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4057,19 +4057,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C104" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D104" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E104" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
@@ -4088,22 +4088,22 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C105" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D105" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4119,19 +4119,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C106" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D106" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -4150,19 +4150,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C107" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D107" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F107" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C108" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D108" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
@@ -4212,19 +4212,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C109" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="D109" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
@@ -4243,19 +4243,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C110" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D110" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -4274,19 +4274,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C111" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D111" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
@@ -4305,22 +4305,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C112" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D112" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F112" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4336,19 +4336,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C113" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D113" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
@@ -4367,19 +4367,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C114" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D114" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C115" t="n">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D115" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4429,19 +4429,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C116" t="n">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D116" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E116" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F116" t="n">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
@@ -4460,19 +4460,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C117" t="n">
+        <v>68</v>
+      </c>
+      <c r="D117" t="n">
         <v>49</v>
       </c>
-      <c r="D117" t="n">
-        <v>78</v>
-      </c>
       <c r="E117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F117" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
@@ -4491,19 +4491,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C118" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D118" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
       </c>
       <c r="F118" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -4522,19 +4522,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C119" t="n">
         <v>61</v>
       </c>
       <c r="D119" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E119" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
@@ -4553,19 +4553,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C120" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D120" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F120" t="n">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
@@ -4584,19 +4584,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C121" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D121" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E121" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
@@ -4615,19 +4615,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C122" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D122" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E122" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F122" t="n">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -4646,19 +4646,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C123" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D123" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
@@ -4677,22 +4677,22 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C124" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D124" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4708,19 +4708,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C125" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D125" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="E125" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
@@ -4739,19 +4739,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C126" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D126" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E126" t="n">
         <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="G126" t="b">
         <v>0</v>
@@ -4770,19 +4770,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C127" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D127" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
@@ -4801,19 +4801,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C128" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D128" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E128" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
@@ -4832,19 +4832,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
+        <v>83</v>
+      </c>
+      <c r="C129" t="n">
+        <v>81</v>
+      </c>
+      <c r="D129" t="n">
         <v>88</v>
       </c>
-      <c r="C129" t="n">
-        <v>90</v>
-      </c>
-      <c r="D129" t="n">
-        <v>44</v>
-      </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F129" t="n">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
@@ -4863,19 +4863,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C130" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="D130" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E130" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F130" t="n">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
@@ -4894,19 +4894,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C131" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D131" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F131" t="n">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
@@ -4925,19 +4925,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C132" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D132" t="n">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F132" t="n">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
@@ -4956,19 +4956,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C133" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D133" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
@@ -4987,19 +4987,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C134" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E134" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F134" t="n">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G134" t="b">
         <v>0</v>
@@ -5018,19 +5018,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C135" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D135" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="G135" t="b">
         <v>0</v>
@@ -5049,19 +5049,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C136" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D136" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E136" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F136" t="n">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
@@ -5080,19 +5080,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C137" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D137" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E137" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F137" t="n">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="G137" t="b">
         <v>0</v>
@@ -5111,19 +5111,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C138" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D138" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="G138" t="b">
         <v>0</v>
@@ -5142,19 +5142,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C139" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D139" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E139" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
@@ -5173,19 +5173,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C140" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D140" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="E140" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F140" t="n">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G140" t="b">
         <v>0</v>
@@ -5204,19 +5204,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C141" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D141" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
@@ -5235,22 +5235,22 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C142" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="D142" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5266,22 +5266,22 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C143" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D143" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5297,19 +5297,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C144" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D144" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F144" t="n">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G144" t="b">
         <v>0</v>
@@ -5328,19 +5328,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C145" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D145" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="G145" t="b">
         <v>0</v>
@@ -5359,22 +5359,22 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C146" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D146" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E146" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5390,19 +5390,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C147" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D147" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
       </c>
       <c r="F147" t="n">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G147" t="b">
         <v>0</v>
@@ -5421,19 +5421,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C148" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D148" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E148" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="G148" t="b">
         <v>0</v>
@@ -5452,19 +5452,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C149" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D149" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G149" t="b">
         <v>0</v>
@@ -5483,19 +5483,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C150" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D150" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E150" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F150" t="n">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="G150" t="b">
         <v>0</v>
@@ -5514,19 +5514,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C151" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D151" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E151" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="G151" t="b">
         <v>0</v>
@@ -5545,19 +5545,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C152" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D152" t="n">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E152" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="G152" t="b">
         <v>0</v>
@@ -5576,19 +5576,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C153" t="n">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D153" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E153" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
@@ -5607,22 +5607,22 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C154" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D154" t="n">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E154" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5638,19 +5638,19 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C155" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D155" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E155" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="G155" t="b">
         <v>0</v>
@@ -5669,19 +5669,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C156" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D156" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E156" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F156" t="n">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G156" t="b">
         <v>0</v>
@@ -5700,22 +5700,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C157" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D157" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="E157" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -5731,22 +5731,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C158" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D158" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
       </c>
       <c r="F158" t="n">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -5762,19 +5762,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C159" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D159" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E159" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F159" t="n">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G159" t="b">
         <v>0</v>
@@ -5793,19 +5793,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C160" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D160" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E160" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="G160" t="b">
         <v>0</v>
@@ -5827,19 +5827,19 @@
         <v>59</v>
       </c>
       <c r="C161" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D161" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E161" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F161" t="n">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -5855,19 +5855,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C162" t="n">
         <v>97</v>
       </c>
       <c r="D162" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G162" t="b">
         <v>0</v>
@@ -5886,19 +5886,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C163" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D163" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F163" t="n">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="G163" t="b">
         <v>0</v>
@@ -5917,19 +5917,19 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C164" t="n">
         <v>95</v>
       </c>
       <c r="D164" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G164" t="b">
         <v>0</v>
@@ -5948,19 +5948,19 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C165" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D165" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E165" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F165" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G165" t="b">
         <v>0</v>
@@ -5979,19 +5979,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C166" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D166" t="n">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F166" t="n">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="G166" t="b">
         <v>0</v>
@@ -6010,19 +6010,19 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C167" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D167" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F167" t="n">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="G167" t="b">
         <v>0</v>
@@ -6041,19 +6041,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C168" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D168" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G168" t="b">
         <v>0</v>
@@ -6072,22 +6072,22 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C169" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D169" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E169" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F169" t="n">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -6103,19 +6103,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C170" t="n">
+        <v>93</v>
+      </c>
+      <c r="D170" t="n">
         <v>95</v>
       </c>
-      <c r="D170" t="n">
-        <v>57</v>
-      </c>
       <c r="E170" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F170" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G170" t="b">
         <v>0</v>
@@ -6134,22 +6134,22 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C171" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D171" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
       </c>
       <c r="F171" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -6165,19 +6165,19 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C172" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D172" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G172" t="b">
         <v>0</v>
@@ -6196,19 +6196,19 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C173" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D173" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E173" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F173" t="n">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="G173" t="b">
         <v>0</v>
@@ -6227,22 +6227,22 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C174" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D174" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E174" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -6258,19 +6258,19 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C175" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D175" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="G175" t="b">
         <v>0</v>
@@ -6289,22 +6289,22 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C176" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D176" t="n">
         <v>72</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F176" t="n">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -6320,19 +6320,19 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C177" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D177" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G177" t="b">
         <v>0</v>
@@ -6351,19 +6351,19 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
+        <v>75</v>
+      </c>
+      <c r="C178" t="n">
+        <v>54</v>
+      </c>
+      <c r="D178" t="n">
         <v>63</v>
       </c>
-      <c r="C178" t="n">
-        <v>84</v>
-      </c>
-      <c r="D178" t="n">
-        <v>43</v>
-      </c>
       <c r="E178" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F178" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G178" t="b">
         <v>0</v>
@@ -6382,19 +6382,19 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C179" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D179" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E179" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F179" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="G179" t="b">
         <v>0</v>
@@ -6413,19 +6413,19 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C180" t="n">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D180" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F180" t="n">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
@@ -6444,19 +6444,19 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C181" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D181" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E181" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F181" t="n">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G181" t="b">
         <v>0</v>
